--- a/许愿墙.xlsx
+++ b/许愿墙.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10907"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\get_jobs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrwu/Downloads/get_jobs-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E10E9C9-FAF9-4AA0-A9AB-C9A3780DC970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A442700-85CB-CD42-A3F0-A172C853FABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="2910" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5980" yWindow="2920" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>你想找什么样的工作？</t>
   </si>
@@ -127,12 +127,20 @@
     <t>已经找到</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>前端开发工程师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在找</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -261,74 +269,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -348,7 +288,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -642,17 +582,17 @@
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -678,7 +618,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -704,7 +644,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -730,7 +670,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -756,7 +696,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -782,7 +722,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -808,7 +748,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -834,7 +774,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -860,7 +800,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -886,7 +826,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -912,7 +852,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -938,7 +878,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -964,7 +904,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -990,7 +930,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1016,7 +956,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1042,7 +982,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1068,7 +1008,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1094,7 +1034,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1120,7 +1060,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1146,7 +1086,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1172,7 +1112,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1198,7 +1138,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1224,7 +1164,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1250,7 +1190,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1276,9 +1216,13 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+    <row r="25" spans="1:20">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1298,7 +1242,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -1320,7 +1264,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -1342,7 +1286,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1364,7 +1308,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1386,7 +1330,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1408,7 +1352,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1430,7 +1374,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1452,7 +1396,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1474,7 +1418,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1496,7 +1440,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1518,7 +1462,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1540,7 +1484,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1562,7 +1506,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1584,7 +1528,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1606,7 +1550,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1628,7 +1572,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1650,7 +1594,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1672,7 +1616,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1694,7 +1638,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1716,7 +1660,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1738,7 +1682,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1760,7 +1704,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1782,7 +1726,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1804,7 +1748,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1826,7 +1770,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1848,7 +1792,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1870,7 +1814,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1892,7 +1836,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1914,7 +1858,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1936,7 +1880,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1958,7 +1902,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1980,7 +1924,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -2002,7 +1946,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -2024,7 +1968,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -2046,7 +1990,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -2068,7 +2012,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -2090,7 +2034,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -2112,7 +2056,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -2134,7 +2078,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -2156,7 +2100,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -2178,7 +2122,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2200,7 +2144,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2222,7 +2166,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2244,7 +2188,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2266,7 +2210,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2288,7 +2232,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2310,7 +2254,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2332,7 +2276,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2354,7 +2298,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2376,7 +2320,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2398,7 +2342,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2420,7 +2364,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2442,7 +2386,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2464,7 +2408,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2486,7 +2430,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2508,7 +2452,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -2530,7 +2474,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -2552,7 +2496,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -2574,7 +2518,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -2596,7 +2540,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -2618,7 +2562,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -2640,7 +2584,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -2662,7 +2606,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -2684,7 +2628,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -2706,7 +2650,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -2728,7 +2672,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -2750,7 +2694,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -2772,7 +2716,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -2794,7 +2738,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -2816,7 +2760,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -2838,7 +2782,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -2860,7 +2804,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -2882,7 +2826,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -2904,7 +2848,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -2926,7 +2870,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -2948,7 +2892,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -2970,7 +2914,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -2992,7 +2936,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -3014,7 +2958,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -3036,7 +2980,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -3058,7 +3002,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -3080,7 +3024,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -3102,7 +3046,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -3124,7 +3068,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3146,7 +3090,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3168,7 +3112,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3190,7 +3134,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3212,7 +3156,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3234,7 +3178,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3256,7 +3200,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3278,7 +3222,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3300,7 +3244,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -3322,7 +3266,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -3344,7 +3288,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -3366,7 +3310,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -3388,7 +3332,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -3410,7 +3354,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -3432,7 +3376,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -3454,7 +3398,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -3476,7 +3420,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -3498,7 +3442,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -3520,7 +3464,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -3542,7 +3486,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -3564,7 +3508,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -3586,7 +3530,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -3608,7 +3552,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -3630,7 +3574,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -3652,7 +3596,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -3674,7 +3618,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -3696,7 +3640,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -3718,7 +3662,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -3740,7 +3684,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -3762,7 +3706,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -3784,7 +3728,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -3806,7 +3750,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -3828,7 +3772,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -3850,7 +3794,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -3872,7 +3816,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -3894,7 +3838,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -3916,7 +3860,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -3938,7 +3882,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -3960,7 +3904,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -3982,7 +3926,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -4004,7 +3948,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -4026,7 +3970,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -4048,7 +3992,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -4070,7 +4014,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -4092,7 +4036,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -4114,7 +4058,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -4136,7 +4080,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -4158,7 +4102,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -4180,7 +4124,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -4202,7 +4146,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -4224,7 +4168,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -4246,7 +4190,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -4268,7 +4212,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -4290,7 +4234,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -4312,7 +4256,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -4334,7 +4278,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -4356,7 +4300,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -4378,7 +4322,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -4400,7 +4344,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -4422,7 +4366,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -4444,7 +4388,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -4466,7 +4410,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -4488,7 +4432,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -4510,7 +4454,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -4532,7 +4476,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -4554,7 +4498,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -4576,7 +4520,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -4598,7 +4542,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -4620,7 +4564,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -4642,7 +4586,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -4664,7 +4608,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -4686,7 +4630,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -4708,7 +4652,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -4730,7 +4674,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -4752,7 +4696,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -4774,7 +4718,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -4796,7 +4740,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -4818,7 +4762,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -4840,7 +4784,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -4862,7 +4806,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -4884,7 +4828,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -4906,7 +4850,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -4928,7 +4872,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -4950,7 +4894,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -4972,7 +4916,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -4994,7 +4938,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -5016,7 +4960,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -5038,7 +4982,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -5060,7 +5004,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -5082,7 +5026,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -5104,7 +5048,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -5126,7 +5070,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
